--- a/images/fig-summary/fig-summary.xlsx
+++ b/images/fig-summary/fig-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slope\Documents\meteors\images\fig-summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3973A2-7365-4A7B-8466-1C553EE25CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B71DB-59D8-4372-B80F-AFFB93162786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="速の章" sheetId="6" r:id="rId1"/>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>昴の神</t>
+    <rPh sb="0" eb="1">
+      <t>スバル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -655,19 +661,19 @@
                   <c:v>昴と流星の神</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>天降る神</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>流星の神の妻</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>昴と流星の神の孫</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>天降る神の妻</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>昴の神</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>天降る神</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>流星の神の妻</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>昴と流星の神の孫</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>天降る神の妻</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5767,7 +5773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9A5981-8265-4F48-9150-8A906164511F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5825,9 +5831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7891AC-627B-423D-96CF-AC03FBE6189C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -5852,7 +5856,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5860,7 +5864,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5868,7 +5872,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5876,7 +5880,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5884,7 +5888,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>

--- a/images/fig-summary/fig-summary.xlsx
+++ b/images/fig-summary/fig-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slope\Documents\meteors\images\fig-summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B71DB-59D8-4372-B80F-AFFB93162786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8321223-2905-4448-937E-F49C52213D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="速の章" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="火の章" sheetId="2" r:id="rId5"/>
     <sheet name="石の章" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">玉の章!$A$1:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">玉の章!$B$1:$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,10 +53,6 @@
   </si>
   <si>
     <t>天降る神の子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他の神</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -90,6 +90,10 @@
     <rPh sb="2" eb="3">
       <t>カミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -329,7 +333,7 @@
                   <c:v>天降る神</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>その他の神</c:v>
+                  <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -976,7 +980,7 @@
                   <c:v>流星の神の妻</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>その他の神</c:v>
+                  <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1348,7 +1352,7 @@
                   <c:v>天降る神の子</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>その他の神</c:v>
+                  <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1704,7 +1708,7 @@
                   <c:v>流星の神の妹・妻・子・孫</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>その他の神</c:v>
+                  <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2007,7 +2011,7 @@
                   <c:v>流星の神の曽孫</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>その他の神</c:v>
+                  <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5292,6 +5296,121 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7FC743-29AE-0D84-CB58-A2A7DDF47CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8597900" y="2743200"/>
+          <a:ext cx="5490000" cy="5490000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>神名に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「ハヤ」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>が付く神</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5333,6 +5452,141 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE07590-1549-4906-B2EC-B6C9AF895CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8604250" y="2755900"/>
+          <a:ext cx="5490000" cy="5490000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>神名に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「クシ」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>またはその変化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>が付く神</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5378,6 +5632,141 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E62317-E054-420D-ADC2-E123483DBAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8597900" y="2749550"/>
+          <a:ext cx="5490000" cy="5490000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>神名に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「ミカ」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>またはその変化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>が付く神</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5417,6 +5806,121 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980C6CB6-50E6-4524-877C-A591AD5CB037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8597900" y="2755900"/>
+          <a:ext cx="5490000" cy="5490000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>神名に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「玉」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>が付く神</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5462,6 +5966,121 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>378250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D523A9-84A2-4377-9F70-F56C323BBDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2749550"/>
+          <a:ext cx="5490000" cy="5490000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>神名に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「乙類のヒ」「ホ」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>が付く神</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5503,6 +6122,141 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD0A473-7E70-4F64-A9EB-0460BE3B73CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8597900" y="2749550"/>
+          <a:ext cx="5490000" cy="5490000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>神名に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「イシ」「イワ」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>またはその変化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>が付く神</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5773,8 +6527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9A5981-8265-4F48-9150-8A906164511F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5792,7 +6546,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5808,7 +6562,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5831,7 +6585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7891AC-627B-423D-96CF-AC03FBE6189C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -5848,7 +6604,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5872,7 +6628,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5888,7 +6644,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5912,7 +6668,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5930,7 +6686,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5954,7 +6710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5978,7 +6734,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5996,7 +6752,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -6020,7 +6776,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6044,7 +6800,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -6068,7 +6824,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6086,7 +6842,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6110,7 +6866,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6118,7 +6874,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6126,7 +6882,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6150,7 +6906,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6168,7 +6924,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -6184,7 +6940,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6192,7 +6948,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>5</v>

--- a/images/fig-summary/fig-summary.xlsx
+++ b/images/fig-summary/fig-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slope\Documents\meteors\images\fig-summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8321223-2905-4448-937E-F49C52213D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A3FF7-FB66-4A76-8D97-0A4752EC9260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="速の章" sheetId="6" r:id="rId1"/>
@@ -20,10 +20,6 @@
     <sheet name="火の章" sheetId="2" r:id="rId5"/>
     <sheet name="石の章" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">玉の章!$A$1:$A$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">玉の章!$B$1:$B$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>流星の神</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +90,14 @@
   </si>
   <si>
     <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天降る神の子、　流星の神の妻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天降る神、流星の神の妻</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1273,6 +1277,23 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="44000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1327,9 +1348,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>玉の章!$A$1:$A$8</c:f>
+              <c:f>玉の章!$A$1:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>流星の神</c:v>
                 </c:pt>
@@ -1352,6 +1373,9 @@
                   <c:v>天降る神の子</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>天降る神の子、　流星の神の妻</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
@@ -1359,10 +1383,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>玉の章!$B$1:$B$8</c:f>
+              <c:f>玉の章!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1373,7 +1397,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1382,9 +1406,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1632,6 +1659,23 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1686,9 +1730,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>火の章!$A$1:$A$7</c:f>
+              <c:f>火の章!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>流星の神</c:v>
                 </c:pt>
@@ -1699,15 +1743,18 @@
                   <c:v>天降る神</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>天降る神、流星の神の妻</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>流星の神の妻</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>流星の神の子</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>流星の神の妹・妻・子・孫</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>その他</c:v>
                 </c:pt>
               </c:strCache>
@@ -1715,10 +1762,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>火の章!$B$1:$B$7</c:f>
+              <c:f>火の章!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -1726,10 +1773,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1738,6 +1785,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -6527,7 +6577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9A5981-8265-4F48-9150-8A906164511F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6731,10 +6781,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6771,7 +6821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6795,21 +6845,29 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9">
-        <f>SUM(B1:B8)</f>
-        <v>25</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <f>SUM(B1:B9)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6821,11 +6879,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EA00B-8F6F-4E7F-BB93-19F425140009}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -6853,20 +6909,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6874,7 +6930,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6882,16 +6938,24 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
       <c r="B8">
-        <f>SUM(B1:B7)</f>
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <f>SUM(B1:B8)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/images/fig-summary/fig-summary.xlsx
+++ b/images/fig-summary/fig-summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slope\Documents\meteors\images\fig-summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A3FF7-FB66-4A76-8D97-0A4752EC9260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0372F97-1AFF-493C-8FBC-C5D007CE056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>流星の神の妹・妻・子・孫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>昴と流星の神</t>
     <rPh sb="5" eb="6">
       <t>カミ</t>
@@ -97,7 +93,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天降る神、流星の神の妻</t>
+    <t>流星の神の妹・妻・子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星の神の妻、天降る神</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1293,6 +1293,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9A19-4A73-8CC2-6DF5A693AC4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1675,6 +1680,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7F39-44FC-97FE-BFE1819034FC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1743,7 +1753,7 @@
                   <c:v>天降る神</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>天降る神、流星の神の妻</c:v>
+                  <c:v>流星の神の妻、天降る神</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>流星の神の妻</c:v>
@@ -1752,7 +1762,7 @@
                   <c:v>流星の神の子</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>流星の神の妹・妻・子・孫</c:v>
+                  <c:v>流星の神の妹・妻・子</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>その他</c:v>
@@ -6612,7 +6622,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -6694,7 +6704,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6760,7 +6770,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -6850,7 +6860,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6858,7 +6868,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -6881,7 +6891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EA00B-8F6F-4E7F-BB93-19F425140009}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -6938,7 +6950,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6946,7 +6958,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6988,7 +7000,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -7004,7 +7016,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7012,7 +7024,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>5</v>
